--- a/Resultados/Mercado mundial - Frijoles, secos.xlsx
+++ b/Resultados/Mercado mundial - Frijoles, secos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Brazil" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Myanmar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="United Republic of Tanzania" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myanmar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Unida de Tanzanía" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -654,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -680,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Myanmar'!$B$12:$B$73</f>
+              <f>'Myanmar'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Myanmar'!$C$12:$C$73</f>
+              <f>'Myanmar'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'United Republic of Tanzania'!$B$12:$B$73</f>
+              <f>'República Unida de Tanzanía'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'United Republic of Tanzania'!$C$12:$C$73</f>
+              <f>'República Unida de Tanzanía'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>37750753</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.7551</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>28505529.48</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.7551</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4717383.21</v>
@@ -2162,10 +2160,10 @@
         <v>37767631</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.7503</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>28338265.06</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.7503</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4545649.22</v>
@@ -2184,10 +2182,10 @@
         <v>37412071</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.7574</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>28336617.39</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.7574</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4265260.59</v>
@@ -2206,10 +2204,10 @@
         <v>34916456</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.7846000000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>27396541.97</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.7846000000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3975993.37</v>
@@ -2228,10 +2226,10 @@
         <v>33427362</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.7631</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>25507190.75</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.7631</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3548518.57</v>
@@ -2250,10 +2248,10 @@
         <v>36335041</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>27503925.5</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.757</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3720274.21</v>
@@ -2272,10 +2270,10 @@
         <v>37381794</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.7835</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>29287024.73</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.7835</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3689526.63</v>
@@ -2294,10 +2292,10 @@
         <v>35532761</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.7664</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>27230608.02</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.7664</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3679596.68</v>
@@ -2316,10 +2314,10 @@
         <v>31607343</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.8318</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>26292012.65</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.8318</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3423183.92</v>
@@ -2338,10 +2336,10 @@
         <v>31002911</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.8196</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>25409242.1</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.8196</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3468541.41</v>
@@ -2360,10 +2358,10 @@
         <v>29738867</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.8442000000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>25106979.58</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.8442000000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3483476.5</v>
@@ -2382,10 +2380,10 @@
         <v>29462388</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>24624031.77</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.8358</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3501560</v>
@@ -2404,10 +2402,10 @@
         <v>30761913</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.7853</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>24158725.78</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.7853</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3378289</v>
@@ -2426,10 +2424,10 @@
         <v>31061804</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.7978999999999999</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>24785151.75</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.7978999999999999</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3106204.84</v>
@@ -2448,10 +2446,10 @@
         <v>25762610</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.8525</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>21963646.21</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.8525</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3584174</v>
@@ -2470,10 +2468,10 @@
         <v>26964976</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.8119</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>21891750.81</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.8119</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3326426</v>
@@ -2492,10 +2490,10 @@
         <v>29515874</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.7335</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21649752.37</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.7335</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3031521</v>
@@ -2514,10 +2512,10 @@
         <v>27919625</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.7514</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20979137.79</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.7514</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2893574</v>
@@ -2536,10 +2534,10 @@
         <v>26822106</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19069359.06</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.711</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2478100.52</v>
@@ -2558,10 +2556,10 @@
         <v>27327422</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.6752999999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18455156.78</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.6752999999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2482447</v>
@@ -2580,10 +2578,10 @@
         <v>28533990</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>21169634.43</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.7419</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2879968</v>
@@ -2602,10 +2600,10 @@
         <v>27688363</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.7196</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>19923293.03</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.7196</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2352935</v>
@@ -2624,10 +2622,10 @@
         <v>24001149</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7613</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18273186.82</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7613</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2208648.34</v>
@@ -2646,10 +2644,10 @@
         <v>23863891</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>17635859.11</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.739</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1890161.72</v>
@@ -2668,10 +2666,10 @@
         <v>23718732</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.7477</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17733467.11</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.7477</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1915608.98</v>
@@ -2690,10 +2688,10 @@
         <v>24299172</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.6738</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>16371784.41</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.6738</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1953928.63</v>
@@ -2712,10 +2710,10 @@
         <v>25526867</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.6382000000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>16292444.53</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.6382000000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1856544.6</v>
@@ -2734,10 +2732,10 @@
         <v>25821011</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.6537000000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16879444.49</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.6537000000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1748860.4</v>
@@ -2756,10 +2754,10 @@
         <v>25963249</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.6764</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17561864.45</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.6764</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1929313.35</v>
@@ -2778,10 +2776,10 @@
         <v>26654190</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.6522</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17383256.8</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.6522</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2014388.03</v>
@@ -2800,10 +2798,10 @@
         <v>24658645</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.6584</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16235217.64</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.6584</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1482217</v>
@@ -2822,10 +2820,10 @@
         <v>25464203</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16935251</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.6651</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1779638</v>
@@ -2844,10 +2842,10 @@
         <v>27450891</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.6473</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17769912.22</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.6473</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1615719</v>
@@ -2866,10 +2864,10 @@
         <v>26545459</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6607000000000001</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17539735</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6607000000000001</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1690826</v>
@@ -2888,10 +2886,10 @@
         <v>26176662</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>15574499</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.595</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1309117</v>
@@ -2910,10 +2908,10 @@
         <v>26803548</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6179</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16561774</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6179</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1541438</v>
@@ -2932,10 +2930,10 @@
         <v>25581875</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.5881000000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15045832</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.5881000000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1357515</v>
@@ -2954,10 +2952,10 @@
         <v>26526575</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.5709</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15143551</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.5709</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1995587</v>
@@ -2976,10 +2974,10 @@
         <v>26417031</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.5867</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>15499453</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.5867</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1222782</v>
@@ -2998,10 +2996,10 @@
         <v>26321041</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.5951000000000001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15664232</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.5951000000000001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1329204</v>
@@ -3020,10 +3018,10 @@
         <v>25210078</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.5881000000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14825734</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.5881000000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1333331</v>
@@ -3042,10 +3040,10 @@
         <v>26214856</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.5852999999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15342446</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.5852999999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1400642</v>
@@ -3064,10 +3062,10 @@
         <v>26440396</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15278695</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5779</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1680643</v>
@@ -3086,10 +3084,10 @@
         <v>25505767</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.5376000000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13711771</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.5376000000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1356974</v>
@@ -3108,10 +3106,10 @@
         <v>23106790</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>12731407</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.551</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>952270</v>
@@ -3130,10 +3128,10 @@
         <v>24419793</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.5551</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>13554877</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.5551</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>811594</v>
@@ -3152,10 +3150,10 @@
         <v>24306124</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.5448</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>13242206</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.5448</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>890664</v>
@@ -3174,10 +3172,10 @@
         <v>23319721</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.5286000000000001</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12327437</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.5286000000000001</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>785767</v>
@@ -3196,10 +3194,10 @@
         <v>24424462</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13412679</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5491</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>871708</v>
@@ -3218,10 +3216,10 @@
         <v>23887691</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5338999999999999</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12753197</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5338999999999999</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>702391</v>
@@ -3240,10 +3238,10 @@
         <v>23905191</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.5454</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>13037173</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.5454</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>695752</v>
@@ -3262,10 +3260,10 @@
         <v>22789341</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.5406</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12319681</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.5406</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>666537</v>
@@ -3284,10 +3282,10 @@
         <v>23271032</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.5413</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12596557</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.5413</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>585986</v>
@@ -3306,10 +3304,10 @@
         <v>23341468</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.5411</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>12629727</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.5411</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>659068</v>
@@ -3328,10 +3326,10 @@
         <v>22912960</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.5124</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11740358</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.5124</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>596289</v>
@@ -3350,10 +3348,10 @@
         <v>23337287</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.5014</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11701307</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.5014</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>594674</v>
@@ -3372,10 +3370,10 @@
         <v>23925421</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.5221</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>12490784</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.5221</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>645141</v>
@@ -3393,10 +3391,10 @@
         <v>23794470</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11897234</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>607366</v>
@@ -3414,10 +3412,10 @@
         <v>24366450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.4943</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>12044424</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.4943</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>620385</v>
@@ -3435,10 +3433,10 @@
         <v>24767407</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.4901</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12139318</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.4901</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>522270</v>
@@ -3456,10 +3454,10 @@
         <v>23846059</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.4904</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11693428</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.4904</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>555729</v>
@@ -3477,10 +3475,10 @@
         <v>23507897</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.4996</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11744939</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.4996</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>447534</v>
@@ -3498,10 +3496,10 @@
         <v>22766818</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.4932</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11228313</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.4932</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>367462</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3898,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3926,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3940,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3954,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>723642.3199999999</v>
+        <v>9225744.219999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.02538603327848096</v>
+        <v>0.3236475304369613</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>8502101.899999999</v>
+        <v>28505529.48</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2982614971584804</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>28505529.48</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4240,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4268,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4282,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4310,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4324,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Etiopía</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4352,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>30513.34</v>
+        <v>1201937.910000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.006145195072787426</v>
+        <v>0.2420627477138989</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1171424.570000001</v>
+        <v>4965398.11</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2359175526411115</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>4965398.11</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4694,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4736,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4764,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4831,58 +4812,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="39" t="n"/>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>15562796</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.4171</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6491362.24</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.4171</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>772747.3199999999</v>
@@ -5052,10 +5033,10 @@
         <v>15872760</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.4164</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>6610000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.4164</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>744665.11</v>
@@ -5074,10 +5055,10 @@
         <v>14719828</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.4158</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>6120000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.4158</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>867281.62</v>
@@ -5096,10 +5077,10 @@
         <v>13158425</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.4149</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5460000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.4149</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>509918.09</v>
@@ -5118,10 +5099,10 @@
         <v>12820418</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>5310000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.4142</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>520964.7</v>
@@ -5140,10 +5121,10 @@
         <v>15030817</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6220000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.4138</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>608171.97</v>
@@ -5162,10 +5143,10 @@
         <v>15324374</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6340000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.4137</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>587143.25</v>
@@ -5184,10 +5165,10 @@
         <v>14238506</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>5890000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.4137</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>727583.29</v>
@@ -5206,10 +5187,10 @@
         <v>10289384</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4260000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.414</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>778796.75</v>
@@ -5228,10 +5209,10 @@
         <v>10000000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4230000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.423</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>840830.58</v>
@@ -5250,10 +5231,10 @@
         <v>9100000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.4418</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4020000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.4418</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>885754</v>
@@ -5272,10 +5253,10 @@
         <v>9100000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3760000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.4132</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>788811</v>
@@ -5294,10 +5275,10 @@
         <v>11000000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.3936</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>4330000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.3936</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>630677</v>
@@ -5316,10 +5297,10 @@
         <v>11000000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.4445</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>4890000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.4445</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>495368</v>
@@ -5338,10 +5319,10 @@
         <v>6000000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2430000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.405</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1031324</v>
@@ -5360,10 +5341,10 @@
         <v>8000000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.3763</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3010000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.3763</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>604518</v>
@@ -5382,10 +5363,10 @@
         <v>10000000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3930000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.393</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>486159</v>
@@ -5404,10 +5385,10 @@
         <v>8549300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3270000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.3825</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>620527</v>
@@ -5426,10 +5407,10 @@
         <v>8047000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.3269</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2630800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.3269</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>304112</v>
@@ -5448,10 +5429,10 @@
         <v>8782800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.3284</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2883900</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.3284</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>281424</v>
@@ -5470,10 +5451,10 @@
         <v>9274600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.4562</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4230800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.4562</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>486039</v>
@@ -5492,10 +5473,10 @@
         <v>7851300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2618800</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.3335</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>249305</v>
@@ -5514,10 +5495,10 @@
         <v>6019700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.5476</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3296200</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.5476</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163741</v>
@@ -5536,10 +5517,10 @@
         <v>5845200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.4871</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2847000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.4871</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>43473</v>
@@ -5558,10 +5539,10 @@
         <v>5970300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2866000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.48</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>38977.69</v>
@@ -5580,10 +5561,10 @@
         <v>7394000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2557600</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.3459</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>96708</v>
@@ -5602,10 +5583,10 @@
         <v>8418400</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.3511</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2955800</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.3511</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>114577</v>
@@ -5624,10 +5605,10 @@
         <v>8416400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.4168</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3507800</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.4168</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>70184</v>
@@ -5646,10 +5627,10 @@
         <v>7833700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.4391</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3440000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.4391</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>92847</v>
@@ -5668,10 +5649,10 @@
         <v>8361000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3057400</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.3657</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>110576</v>
@@ -5690,10 +5671,10 @@
         <v>8542000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.3834</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3274700</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.3834</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>54177</v>
@@ -5712,10 +5693,10 @@
         <v>8745000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.4426</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3870400</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.4426</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>24878</v>
@@ -5734,10 +5715,10 @@
         <v>9682000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3529000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.3645</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>79319</v>
@@ -5756,10 +5737,10 @@
         <v>9790700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4084900</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.4172</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>154327</v>
@@ -5778,10 +5759,10 @@
         <v>9691000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.4026</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3902000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.4026</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>57027</v>
@@ -5800,10 +5781,10 @@
         <v>9423700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.4283</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>4036300</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.4283</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>147845</v>
@@ -5822,10 +5803,10 @@
         <v>8725200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.3719</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3244600</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.3719</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>176750</v>
@@ -5844,10 +5825,10 @@
         <v>9360000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3076600</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.3287</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>553693</v>
@@ -5866,10 +5847,10 @@
         <v>9458000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3128000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.3307</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>137000</v>
@@ -5888,10 +5869,10 @@
         <v>9062600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.3437</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3115200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.3437</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>140383</v>
@@ -5910,10 +5891,10 @@
         <v>9113200</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.3842</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3501700</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.3842</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>136293</v>
@@ -5932,10 +5913,10 @@
         <v>8671900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2862100</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.33</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>45169</v>
@@ -5954,10 +5935,10 @@
         <v>9038500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2943900</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.3257</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>204705</v>
@@ -5976,10 +5957,10 @@
         <v>9298600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.2959</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>2751600</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.2959</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>47610</v>
@@ -5998,10 +5979,10 @@
         <v>8153400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.2436</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1986400</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.2436</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>55155</v>
@@ -6020,10 +6001,10 @@
         <v>8397100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.3037</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2550600</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.3037</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>27457</v>
@@ -6042,10 +6023,10 @@
         <v>8329900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.3297</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2746500</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.3297</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1779</v>
@@ -6064,10 +6045,10 @@
         <v>8204500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.3002</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2463300</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.3002</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3984</v>
@@ -6086,10 +6067,10 @@
         <v>8750100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.3163</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2767400</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.3163</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>149</v>
@@ -6108,10 +6089,10 @@
         <v>8361000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.2601</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2175100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.2601</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>272</v>
@@ -6130,10 +6111,10 @@
         <v>8640100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.3091</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2670300</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.3091</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>123</v>
@@ -6152,10 +6133,10 @@
         <v>7491700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.2332</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1747400</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.2332</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1009</v>
@@ -6174,10 +6155,10 @@
         <v>7520500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.2703</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2032800</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.2703</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>922</v>
@@ -6196,10 +6177,10 @@
         <v>7796000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2409000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.309</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1082</v>
@@ -6218,10 +6199,10 @@
         <v>7461100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.2699</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2014000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.2699</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>234</v>
@@ -6240,10 +6221,10 @@
         <v>7406700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1864700</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.2518</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>356</v>
@@ -6262,10 +6243,10 @@
         <v>7548200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.2659</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2007100</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.2659</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1780</v>
@@ -6283,10 +6264,10 @@
         <v>7247400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1688500</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.233</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>257</v>
@@ -6304,10 +6285,10 @@
         <v>7088400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.2401</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1701700</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.2401</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1877</v>
@@ -6325,10 +6306,10 @@
         <v>7332400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.2809</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2059400</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.2809</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>43</v>
@@ -6346,10 +6327,10 @@
         <v>7040000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.2593</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1825800</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.2593</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>96</v>
@@ -6367,10 +6348,10 @@
         <v>6725782</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.2683</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1804505</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.2683</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1331</v>
@@ -6388,10 +6369,10 @@
         <v>6541248</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.2577</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1685627</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.2577</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>216</v>
@@ -6727,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6806,10 +6787,10 @@
         <v>2465222</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.176</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2899043</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.176</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>68984.23</v>
@@ -6828,10 +6809,10 @@
         <v>2635041</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.0901</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2872474</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.0901</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>76137.02</v>
@@ -6850,10 +6831,10 @@
         <v>2613638</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1099</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2900805</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1099</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>83106.78</v>
@@ -6872,10 +6853,10 @@
         <v>2687605</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.1297</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3036254</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.1297</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>113581.21</v>
@@ -6894,10 +6875,10 @@
         <v>2607691</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.1152</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2908075</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.1152</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>150660.32</v>
@@ -6916,10 +6897,10 @@
         <v>2837675</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.0277</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2916365</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.0277</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>80895.49000000001</v>
@@ -6938,10 +6919,10 @@
         <v>2801248</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.0874</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3046079</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.0874</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>137402.93</v>
@@ -6960,10 +6941,10 @@
         <v>2587772</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2621267</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.0129</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>342130.71</v>
@@ -6982,10 +6963,10 @@
         <v>2865396</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3088926</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.078</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>156307.19</v>
@@ -7004,10 +6985,10 @@
         <v>3185745</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.0342</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3294586</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.0342</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>135296.04</v>
@@ -7026,10 +7007,10 @@
         <v>2813506</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.0281</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2892599</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.0281</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>303934</v>
@@ -7048,10 +7029,10 @@
         <v>2709485</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.0315</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2794854</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.0315</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>311909</v>
@@ -7070,10 +7051,10 @@
         <v>3673162</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.9352999999999999</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3435366</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.9352999999999999</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>207092</v>
@@ -7092,10 +7073,10 @@
         <v>3423646</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.9227000000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3158905</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.9227000000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>181162</v>
@@ -7114,10 +7095,10 @@
         <v>4099991</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.8503999999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3486763</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.8503999999999999</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>109921</v>
@@ -7136,10 +7117,10 @@
         <v>3781908</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.9152</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3461194</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.9152</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>209690</v>
@@ -7158,10 +7139,10 @@
         <v>3788279</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.8366</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3169356</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.8366</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>96269</v>
@@ -7180,10 +7161,10 @@
         <v>4034383</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3457744</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.8571</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>70064</v>
@@ -7202,10 +7183,10 @@
         <v>3748656</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.8061</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3021641</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.8061</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>100697</v>
@@ -7224,10 +7205,10 @@
         <v>3978660</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.7457</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2967007</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.7457</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>79191</v>
@@ -7246,10 +7227,10 @@
         <v>4090568</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.8072</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>3302038</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.8072</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>103277</v>
@@ -7268,10 +7249,10 @@
         <v>4140530</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.7401</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>3064230</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.7401</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>82303</v>
@@ -7290,10 +7271,10 @@
         <v>3450347</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7111000000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2453681</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7111000000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>130263</v>
@@ -7312,10 +7293,10 @@
         <v>4332545</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.7054</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3056289</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.7054</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>79528.11</v>
@@ -7334,10 +7315,10 @@
         <v>4154194</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2830915</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.6815</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>92808</v>
@@ -7356,10 +7337,10 @@
         <v>3313620</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.6613</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2191153</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.6613</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>211030</v>
@@ -7378,10 +7359,10 @@
         <v>4401770</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.6453</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2840243</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.6453</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>158474</v>
@@ -7400,10 +7381,10 @@
         <v>4300513</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.5702</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2452036</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.5702</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>82413</v>
@@ -7422,10 +7403,10 @@
         <v>5006400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2946168</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.5885</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>171762</v>
@@ -7444,10 +7425,10 @@
         <v>5471320</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3369684</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.6159</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>219002</v>
@@ -7466,10 +7447,10 @@
         <v>3884340</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2478325</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.638</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>79821</v>
@@ -7488,10 +7469,10 @@
         <v>5148700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.5433</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2797138</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.5433</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>96657</v>
@@ -7510,10 +7491,10 @@
         <v>5433640</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.5051</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2744711</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.5051</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>96782</v>
@@ -7532,10 +7513,10 @@
         <v>4680090</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2234467</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.4774</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>70401</v>
@@ -7554,10 +7535,10 @@
         <v>5175270</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2308355</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.446</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>42798</v>
@@ -7576,10 +7557,10 @@
         <v>5764882</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.4862</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2802983</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.4862</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>30619</v>
@@ -7598,10 +7579,10 @@
         <v>5221794</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.3842</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2006055</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.3842</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>35054</v>
@@ -7620,10 +7601,10 @@
         <v>5477688</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.4052</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2219478</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.4052</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>94999</v>
@@ -7642,10 +7623,10 @@
         <v>5315890</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.4795</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2548738</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.4795</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>15343</v>
@@ -7664,10 +7645,10 @@
         <v>5320150</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.4935</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2625676</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.4935</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>60527</v>
@@ -7686,10 +7667,10 @@
         <v>4064028</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.3889</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1580546</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.3889</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3739</v>
@@ -7708,10 +7689,10 @@
         <v>5926143</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.4898</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2902657</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.4898</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3570</v>
@@ -7730,10 +7711,10 @@
         <v>5026925</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.4657</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2340947</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.4657</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5631</v>
@@ -7752,10 +7733,10 @@
         <v>4643409</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.4239</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1968165</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.4239</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>39887</v>
@@ -7774,10 +7755,10 @@
         <v>4212424</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2186343</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.519</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>7664</v>
@@ -7796,10 +7777,10 @@
         <v>4617259</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4752</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2193977</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4752</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>7580</v>
@@ -7818,10 +7799,10 @@
         <v>4551032</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.5032</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2290007</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.5032</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>81819</v>
@@ -7840,10 +7821,10 @@
         <v>4059176</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.4534</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1840315</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.4534</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>52734</v>
@@ -7862,10 +7843,10 @@
         <v>4145916</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5505</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2282466</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5505</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3705</v>
@@ -7884,10 +7865,10 @@
         <v>4288555</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5219</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2238012</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5219</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1431</v>
@@ -7906,10 +7887,10 @@
         <v>3815452</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2232033</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.585</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>13893</v>
@@ -7928,10 +7909,10 @@
         <v>3971034</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.6738999999999999</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2676225</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.6738999999999999</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>11853</v>
@@ -7950,10 +7931,10 @@
         <v>3936281</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.6829</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2687989</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.6829</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2138</v>
@@ -7972,10 +7953,10 @@
         <v>3484778</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.6346000000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2211449</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.6346000000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1747</v>
@@ -7994,10 +7975,10 @@
         <v>3633264</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2199974</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.6055</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1352</v>
@@ -8016,10 +7997,10 @@
         <v>3663301</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6605</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2419677</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6605</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>6685</v>
@@ -8038,10 +8019,10 @@
         <v>3650568</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.6979</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2547577</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.6979</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>11760</v>
@@ -8059,10 +8040,10 @@
         <v>3324592</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.6461</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2148100</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.6461</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15454</v>
@@ -8080,10 +8061,10 @@
         <v>3272525</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6997000000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2289796</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6997000000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>791</v>
@@ -8101,10 +8082,10 @@
         <v>3130562</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1950683</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6231</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>306</v>
@@ -8122,10 +8103,10 @@
         <v>2982432</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.6513</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1942364</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.6513</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1033</v>
@@ -8143,10 +8124,10 @@
         <v>2716257</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6294999999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1709983</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6294999999999999</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3931</v>
@@ -8164,10 +8145,10 @@
         <v>2580567</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1744561</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.676</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>226</v>
@@ -8503,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8582,10 +8563,10 @@
         <v>2817373</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.9526</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2683918.83</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.9526</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8602,10 +8583,10 @@
         <v>2888347</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.9432999999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2724499</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.9432999999999999</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8622,10 +8603,10 @@
         <v>2870000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.9387000000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2694043</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.9387000000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -8644,10 +8625,10 @@
         <v>2854309</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.9317000000000001</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2659244</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.9317000000000001</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>47.6</v>
@@ -8666,10 +8647,10 @@
         <v>2909925</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.9335</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2716527</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.9335</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>559.9299999999999</v>
@@ -8688,10 +8669,10 @@
         <v>2917580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.9326</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2721079</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.9326</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>777.89</v>
@@ -8710,10 +8691,10 @@
         <v>3077000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.9301</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2861839</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.9301</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1001</v>
@@ -8732,10 +8713,10 @@
         <v>3293630</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3157256</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.9586</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5159.39</v>
@@ -8754,10 +8735,10 @@
         <v>3294140</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.9671000000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3185719</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.9671000000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>457.01</v>
@@ -8776,10 +8757,10 @@
         <v>3213500</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3062531</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.953</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>199.28</v>
@@ -8798,10 +8779,10 @@
         <v>3012931</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.4605</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4400304.25</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.4605</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>103</v>
@@ -8820,10 +8801,10 @@
         <v>2797865</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.4299</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4000539.48</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.4299</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>108</v>
@@ -8842,10 +8823,10 @@
         <v>2712000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.3827</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3750000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.3827</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12</v>
@@ -8864,10 +8845,10 @@
         <v>2710000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.3026</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3530000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.3026</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8886,10 +8867,10 @@
         <v>2719000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.2413</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3375000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.2413</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -8908,10 +8889,10 @@
         <v>2725000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.1809</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3218000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.1809</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -8930,10 +8911,10 @@
         <v>2536000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.1096</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2814000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.1096</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>48</v>
@@ -8952,10 +8933,10 @@
         <v>2394000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.0451</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2502000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.0451</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>55</v>
@@ -8974,10 +8955,10 @@
         <v>2184000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2175000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.9959</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>28</v>
@@ -8996,10 +8977,10 @@
         <v>2071000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8996000000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1863000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8996000000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>650</v>
@@ -9018,10 +8999,10 @@
         <v>2055000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.8847</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1818000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.8847</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>234</v>
@@ -9040,10 +9021,10 @@
         <v>2000000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.8005</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1601000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.8005</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2300</v>
@@ -9062,10 +9043,10 @@
         <v>1849548</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7764</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1436000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7764</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2000</v>
@@ -9084,10 +9065,10 @@
         <v>1762420</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.7292999999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1285259</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.7292999999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5</v>
@@ -9106,10 +9087,10 @@
         <v>1674701</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.7376</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1235337</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.7376</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20</v>
@@ -9128,10 +9109,10 @@
         <v>1328370</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.8112</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1077570</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.8112</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>415</v>
@@ -9150,10 +9131,10 @@
         <v>1377200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>936500</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.68</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>45</v>
@@ -9172,10 +9153,10 @@
         <v>1324600</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.7302999999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>967300</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.7302999999999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9194,10 +9175,10 @@
         <v>1104400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.6815</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>752600</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.6815</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9216,10 +9197,10 @@
         <v>908900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.6506000000000001</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>591300</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.6506000000000001</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9238,10 +9219,10 @@
         <v>882200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.6547000000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>577600</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.6547000000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9260,10 +9241,10 @@
         <v>723200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.6704</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>484800</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.6704</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9282,10 +9263,10 @@
         <v>547100</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.6432</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>351900</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.6432</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9304,10 +9285,10 @@
         <v>433400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>263500</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.608</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9326,10 +9307,10 @@
         <v>322900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.6674</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>215500</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.6674</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9348,10 +9329,10 @@
         <v>361800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.8952</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>323900</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.8952</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9370,10 +9351,10 @@
         <v>388100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.9338</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>362400</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.9338</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9392,10 +9373,10 @@
         <v>416400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.8697999999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>362200</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.8697999999999999</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9414,10 +9395,10 @@
         <v>419700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.8032</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>337100</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.8032</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9436,10 +9417,10 @@
         <v>414400</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.8639</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>358000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.8639</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9458,10 +9439,10 @@
         <v>337900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.8295</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>280300</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.8295</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9480,10 +9461,10 @@
         <v>377600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.7217</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>272500</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.7217</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9502,10 +9483,10 @@
         <v>432000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5512</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>238103</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5512</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9524,10 +9505,10 @@
         <v>392800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6995</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>274769</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6995</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9546,10 +9527,10 @@
         <v>400100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5101</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>204090</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5101</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9568,10 +9549,10 @@
         <v>385300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>203040</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.527</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9590,10 +9571,10 @@
         <v>332000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.4901</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>162700</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.4901</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9612,10 +9593,10 @@
         <v>333200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.3917</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>130500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.3917</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9634,10 +9615,10 @@
         <v>379400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.4117</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>156200</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.4117</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9656,10 +9637,10 @@
         <v>344500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.4444</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>153100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.4444</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9678,10 +9659,10 @@
         <v>371300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.4161</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>154500</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.4161</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9700,10 +9681,10 @@
         <v>366500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.4412</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>161700</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.4412</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>102</v>
@@ -9722,10 +9703,10 @@
         <v>330500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>157000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.475</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9744,10 +9725,10 @@
         <v>344800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.4371</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>150700</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.4371</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9766,10 +9747,10 @@
         <v>375300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.4604</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>172800</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.4604</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9788,10 +9769,10 @@
         <v>364300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.4252</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>154900</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.4252</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9810,10 +9791,10 @@
         <v>395300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4063</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>160600</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4063</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9831,10 +9812,10 @@
         <v>373800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.4767</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>178200</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.4767</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9852,10 +9833,10 @@
         <v>363300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>176000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.4844</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9873,10 +9854,10 @@
         <v>401400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.5418999999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>217500</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.5418999999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9894,10 +9875,10 @@
         <v>381300</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.5235</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>199600</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.5235</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9915,10 +9896,10 @@
         <v>295400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.5487000000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>162100</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.5487000000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9936,10 +9917,10 @@
         <v>274200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.5007</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>137300</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.5007</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10275,7 +10256,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10354,10 +10335,10 @@
         <v>1080752</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.3731</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1484000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.3731</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2097.81</v>
@@ -10376,10 +10357,10 @@
         <v>943690</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.3447</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1269000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.3447</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>226.34</v>
@@ -10398,10 +10379,10 @@
         <v>987307</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.3035</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1287000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.3035</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2244.67</v>
@@ -10420,10 +10401,10 @@
         <v>958509</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.3258</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1270750.33</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.3258</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4074.83</v>
@@ -10442,10 +10423,10 @@
         <v>893570</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.3401</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1197489</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.3401</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4168.6</v>
@@ -10464,10 +10445,10 @@
         <v>896646</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.2234</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1096930</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.2234</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>967.4299999999999</v>
@@ -10486,10 +10467,10 @@
         <v>1119826</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.2756</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1428434</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.2756</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1530.28</v>
@@ -10508,10 +10489,10 @@
         <v>1039465</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.1488</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1194180.34</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.1488</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1734.59</v>
@@ -10530,10 +10511,10 @@
         <v>1124710</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.0687</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1201922</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.0687</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1970.87</v>
@@ -10552,10 +10533,10 @@
         <v>1114393</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1114500</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.0001</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3223.97</v>
@@ -10574,10 +10555,10 @@
         <v>1151376</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.9671000000000001</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1113541</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.9671000000000001</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4137</v>
@@ -10596,10 +10577,10 @@
         <v>1265404</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.9477000000000001</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1199267</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.9477000000000001</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1387</v>
@@ -10618,10 +10599,10 @@
         <v>737661</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.9163</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>675948</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.9163</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>832</v>
@@ -10640,10 +10621,10 @@
         <v>1208690</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.7177</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>867530</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.7177</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>468</v>
@@ -10662,10 +10643,10 @@
         <v>868310</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>773720</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.8911</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4097</v>
@@ -10684,10 +10665,10 @@
         <v>749540</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>570750</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.7615</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>698</v>
@@ -10706,10 +10687,10 @@
         <v>918742</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.9679</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>889293</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.9679</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2183</v>
@@ -10728,10 +10709,10 @@
         <v>894771</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.7907999999999999</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>707623</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.7907999999999999</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>619</v>
@@ -10750,10 +10731,10 @@
         <v>894771</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>626340</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.7</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>12750</v>
@@ -10772,10 +10753,10 @@
         <v>811010</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>447710</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.552</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4975</v>
@@ -10794,10 +10775,10 @@
         <v>687810</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.4842</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>333040</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.4842</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>141</v>
@@ -10816,10 +10797,10 @@
         <v>690005</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.8122</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>560450</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.8122</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1000</v>
@@ -10838,10 +10819,10 @@
         <v>692200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7946</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7946</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163</v>
@@ -10860,10 +10841,10 @@
         <v>672226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.8032999999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>540000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.8032999999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>68</v>
@@ -10882,10 +10863,10 @@
         <v>651971</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.7976</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.7976</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1393</v>
@@ -10904,10 +10885,10 @@
         <v>631421</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.7923</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>500300</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.7923</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>386</v>
@@ -10926,10 +10907,10 @@
         <v>610571</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.7866000000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>480267</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.7866000000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5317.99</v>
@@ -10948,10 +10929,10 @@
         <v>589413</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.7807999999999999</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>460233</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.7807999999999999</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>6827</v>
@@ -10970,10 +10951,10 @@
         <v>567941</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.7751</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>440200</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.7751</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8977</v>
@@ -10992,10 +10973,10 @@
         <v>546149</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.7693</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>420167</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.7693</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -11012,10 +10993,10 @@
         <v>524027</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.7636000000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>400133</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.7636000000000001</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -11032,10 +11013,10 @@
         <v>501570</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.7577999999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>380100</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.7577999999999999</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -11052,10 +11033,10 @@
         <v>478770</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7521</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>360067</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7521</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -11072,10 +11053,10 @@
         <v>455617</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.7463</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>340033</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.7463</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -11092,10 +11073,10 @@
         <v>432105</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7406</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>320000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7406</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11112,10 +11093,10 @@
         <v>326617</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.7348</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.7348</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11132,10 +11113,10 @@
         <v>370343</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.7291</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11152,10 +11133,10 @@
         <v>318000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7232999999999999</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>230000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7232999999999999</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11172,10 +11153,10 @@
         <v>441000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6122000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>270000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6122000000000001</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11192,10 +11173,10 @@
         <v>446700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6273</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>280200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6273</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11212,10 +11193,10 @@
         <v>465900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>281900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.6051</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11232,10 +11213,10 @@
         <v>500000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11252,10 +11233,10 @@
         <v>500000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11272,10 +11253,10 @@
         <v>500000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11292,10 +11273,10 @@
         <v>500000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5058</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>252889</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5058</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11312,10 +11293,10 @@
         <v>500000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.5516</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>275818</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.5516</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11332,10 +11313,10 @@
         <v>350000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.5595</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>195820</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.5595</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11352,10 +11333,10 @@
         <v>294000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.4966</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>146000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.4966</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11372,10 +11353,10 @@
         <v>268000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>134000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11392,10 +11373,10 @@
         <v>260000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>130000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11412,10 +11393,10 @@
         <v>280000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>145000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.5179</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11432,10 +11413,10 @@
         <v>280000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.5769</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>161520</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.5769</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11452,10 +11433,10 @@
         <v>260000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.5137999999999999</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>133584</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.5137999999999999</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11472,10 +11453,10 @@
         <v>262250</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.4957</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>130004</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.4957</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11492,10 +11473,10 @@
         <v>206701</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.5294</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>109437</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.5294</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11512,10 +11493,10 @@
         <v>219771</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.5397999999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>118622</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.5397999999999999</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11532,10 +11513,10 @@
         <v>250000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.5655</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>141379</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.5655</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11551,10 +11532,10 @@
         <v>234056</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>109766</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.469</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11570,10 +11551,10 @@
         <v>176644</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>84339</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.4775</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11589,10 +11570,10 @@
         <v>230743</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>98744</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.4279</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11608,10 +11589,10 @@
         <v>209944</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.4234</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>88891</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.4234</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11627,10 +11608,10 @@
         <v>202000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.4208</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.4208</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11646,10 +11627,10 @@
         <v>193000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.4145</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.4145</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11983,7 +11964,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12062,10 +12043,10 @@
         <v>728166</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1296894.34</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.781</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>621527.8</v>
@@ -12084,10 +12065,10 @@
         <v>733290</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.7705</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1298280.76</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.7705</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>730694.84</v>
@@ -12106,10 +12087,10 @@
         <v>738475</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.7599</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1299667.17</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.7599</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>342936.64</v>
@@ -12128,10 +12109,10 @@
         <v>737431</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.7601</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1297926.91</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.7601</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>224684.59</v>
@@ -12150,10 +12131,10 @@
         <v>749458</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.7635</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1321646.4</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.7635</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>134956.15</v>
@@ -12172,10 +12153,10 @@
         <v>747813</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1324407</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.771</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>107133.63</v>
@@ -12194,10 +12175,10 @@
         <v>753485</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.7548</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1322214</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.7548</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>49831.43</v>
@@ -12216,10 +12197,10 @@
         <v>727141</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.6416</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1193702</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.6416</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>43740.29</v>
@@ -12238,10 +12219,10 @@
         <v>667000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.6492</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1100000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.6492</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>59520.81</v>
@@ -12260,10 +12241,10 @@
         <v>600000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1050000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.75</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>35791.87</v>
@@ -12282,10 +12263,10 @@
         <v>625000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.6032</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1002000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.6032</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>23286</v>
@@ -12304,10 +12285,10 @@
         <v>748000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.4912</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1115400</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.4912</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38939</v>
@@ -12326,10 +12307,10 @@
         <v>909330</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.3238</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1203800</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.3238</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>20741</v>
@@ -12348,10 +12329,10 @@
         <v>907000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.4664</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1330000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.4664</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>81883</v>
@@ -12370,10 +12351,10 @@
         <v>900000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.6444</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1480000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.6444</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8851</v>
@@ -12392,10 +12373,10 @@
         <v>1000000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.7</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>87147</v>
@@ -12414,10 +12395,10 @@
         <v>987000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.5451</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1525000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.5451</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25074</v>
@@ -12436,10 +12417,10 @@
         <v>950000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.6316</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1550000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.6316</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>11484</v>
@@ -12458,10 +12439,10 @@
         <v>1220000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.4754</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.4754</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>11242</v>
@@ -12480,10 +12461,10 @@
         <v>1148000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.5244</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.5244</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>13893</v>
@@ -12502,10 +12483,10 @@
         <v>1313800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5756</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2070000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5756</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1295</v>
@@ -12524,10 +12505,10 @@
         <v>1434500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.4291</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2050000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.4291</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4074</v>
@@ -12546,10 +12527,10 @@
         <v>1330000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.3534</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.3534</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3922</v>
@@ -12568,10 +12549,10 @@
         <v>1200000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.375</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5479.77</v>
@@ -12590,10 +12571,10 @@
         <v>1158500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.4415</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1670000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.4415</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2302</v>
@@ -12612,10 +12593,10 @@
         <v>1190500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.3163</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1567000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.3163</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>15493</v>
@@ -12634,10 +12615,10 @@
         <v>1058300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.2284</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.2284</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>11094</v>
@@ -12656,10 +12637,10 @@
         <v>1200000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1530000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.275</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17884</v>
@@ -12678,10 +12659,10 @@
         <v>1300000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1430000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.1</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>4955</v>
@@ -12700,10 +12681,10 @@
         <v>1400000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.0714</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.0714</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4468</v>
@@ -12722,10 +12703,10 @@
         <v>1200000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.0417</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1250000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.0417</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>29630</v>
@@ -12744,10 +12725,10 @@
         <v>1240013</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.2329</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1528813</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.2329</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>28469</v>
@@ -12766,10 +12747,10 @@
         <v>1241948</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.3035</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1618884.81</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.3035</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>24042</v>
@@ -12788,10 +12769,10 @@
         <v>1200000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.5</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>30278</v>
@@ -12810,10 +12791,10 @@
         <v>1300000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1300000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>36297</v>
@@ -12832,10 +12813,10 @@
         <v>1300000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.2885</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1675000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.2885</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>33354</v>
@@ -12854,10 +12835,10 @@
         <v>1400000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.0386</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1454000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.0386</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>36325</v>
@@ -12876,10 +12857,10 @@
         <v>1400000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.0714</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1500000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.0714</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>48524</v>
@@ -12898,10 +12879,10 @@
         <v>1400000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.1429</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>40926</v>
@@ -12920,10 +12901,10 @@
         <v>1500000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.2</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>42448</v>
@@ -12942,10 +12923,10 @@
         <v>1500000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.1333</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.1333</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>40000</v>
@@ -12964,10 +12945,10 @@
         <v>1500000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.1333</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.1333</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>65300</v>
@@ -12986,10 +12967,10 @@
         <v>1700000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>29000</v>
@@ -13008,10 +12989,10 @@
         <v>1700000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>28000</v>
@@ -13030,10 +13011,10 @@
         <v>1700000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.9912000000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1685000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.9912000000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21000</v>
@@ -13052,10 +13033,10 @@
         <v>1500000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.1033</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1655000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.1033</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>20000</v>
@@ -13074,10 +13055,10 @@
         <v>1700000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.9412</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.9412</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>5000</v>
@@ -13096,10 +13077,10 @@
         <v>1700000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.9706</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1650000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.9706</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13118,10 +13099,10 @@
         <v>1700000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13140,10 +13121,10 @@
         <v>1700000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13162,10 +13143,10 @@
         <v>1800000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.9444</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13184,10 +13165,10 @@
         <v>1800000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.8889</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13206,10 +13187,10 @@
         <v>1900000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.8737</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1660000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.8737</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13228,10 +13209,10 @@
         <v>2300000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.8261000000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.8261000000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13250,10 +13231,10 @@
         <v>2300000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.6957000000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.6957000000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13272,10 +13253,10 @@
         <v>2400000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1600000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6667000000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>191</v>
@@ -13294,10 +13275,10 @@
         <v>2500000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.72</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13315,10 +13296,10 @@
         <v>2500000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1800000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.72</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15</v>
@@ -13336,10 +13317,10 @@
         <v>2800000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.8392999999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2350000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.8392999999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>201</v>
@@ -13357,10 +13338,10 @@
         <v>2800000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.8214</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.8214</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>378</v>
@@ -13378,10 +13359,10 @@
         <v>2800000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.7857000000000001</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2200000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.7857000000000001</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3000</v>
@@ -13399,10 +13380,10 @@
         <v>3500000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.8286</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4000</v>
@@ -13420,10 +13401,10 @@
         <v>3100000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.6871</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2130000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.6871</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>363</v>

--- a/Resultados/Mercado mundial - Frijoles, secos.xlsx
+++ b/Resultados/Mercado mundial - Frijoles, secos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myanmar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="República Unida de Tanzanía" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Brazil" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Myanmar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="United Republic of Tanzania" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +680,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +762,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +844,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +926,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1008,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'República Unida de Tanzanía'!$B$12:$B$74</f>
+              <f>'United Republic of Tanzania'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'República Unida de Tanzanía'!$C$12:$C$74</f>
+              <f>'United Republic of Tanzania'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1090,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>37750753</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>28505529.48</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.7551</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>28505529.48</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4717383.21</v>
@@ -2160,10 +2162,10 @@
         <v>37767631</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>28338265.06</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.7503</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>28338265.06</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4545649.22</v>
@@ -2182,10 +2184,10 @@
         <v>37412071</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>28336617.39</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.7574</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>28336617.39</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4265260.59</v>
@@ -2204,10 +2206,10 @@
         <v>34916456</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>27396541.97</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.7846000000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>27396541.97</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3975993.37</v>
@@ -2226,10 +2228,10 @@
         <v>33427362</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>25507190.75</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.7631</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>25507190.75</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3548518.57</v>
@@ -2248,10 +2250,10 @@
         <v>36335041</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>27503925.5</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.757</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>27503925.5</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3720274.21</v>
@@ -2270,10 +2272,10 @@
         <v>37381794</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>29287024.73</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.7835</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>29287024.73</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3689526.63</v>
@@ -2292,10 +2294,10 @@
         <v>35532761</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>27230608.02</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.7664</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>27230608.02</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3679596.68</v>
@@ -2314,10 +2316,10 @@
         <v>31607343</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>26292012.65</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.8318</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>26292012.65</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3423183.92</v>
@@ -2336,10 +2338,10 @@
         <v>31002911</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>25409242.1</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.8196</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>25409242.1</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3468541.41</v>
@@ -2358,10 +2360,10 @@
         <v>29738867</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>25106979.58</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.8442000000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>25106979.58</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3483476.5</v>
@@ -2380,10 +2382,10 @@
         <v>29462388</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>24624031.77</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.8358</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>24624031.77</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3501560</v>
@@ -2402,10 +2404,10 @@
         <v>30761913</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>24158725.78</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.7853</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>24158725.78</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3378289</v>
@@ -2424,10 +2426,10 @@
         <v>31061804</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>24785151.75</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.7978999999999999</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>24785151.75</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3106204.84</v>
@@ -2446,10 +2448,10 @@
         <v>25762610</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>21963646.21</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.8525</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>21963646.21</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>3584174</v>
@@ -2468,10 +2470,10 @@
         <v>26964976</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>21891750.81</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.8119</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>21891750.81</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>3326426</v>
@@ -2490,10 +2492,10 @@
         <v>29515874</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21649752.37</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.7335</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21649752.37</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3031521</v>
@@ -2512,10 +2514,10 @@
         <v>27919625</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20979137.79</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.7514</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20979137.79</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2893574</v>
@@ -2534,10 +2536,10 @@
         <v>26822106</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19069359.06</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.711</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19069359.06</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2478100.52</v>
@@ -2556,10 +2558,10 @@
         <v>27327422</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18455156.78</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.6752999999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18455156.78</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2482447</v>
@@ -2578,10 +2580,10 @@
         <v>28533990</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>21169634.43</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.7419</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>21169634.43</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2879968</v>
@@ -2600,10 +2602,10 @@
         <v>27688363</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>19923293.03</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.7196</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>19923293.03</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2352935</v>
@@ -2622,10 +2624,10 @@
         <v>24001149</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18273186.82</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7613</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18273186.82</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2208648.34</v>
@@ -2644,10 +2646,10 @@
         <v>23863891</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>17635859.11</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.739</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>17635859.11</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1890161.72</v>
@@ -2666,10 +2668,10 @@
         <v>23718732</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17733467.11</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.7477</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17733467.11</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1915608.98</v>
@@ -2688,10 +2690,10 @@
         <v>24299172</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>16371784.41</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.6738</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>16371784.41</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1953928.63</v>
@@ -2710,10 +2712,10 @@
         <v>25526867</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>16292444.53</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.6382000000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>16292444.53</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1856544.6</v>
@@ -2732,10 +2734,10 @@
         <v>25821011</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16879444.49</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.6537000000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16879444.49</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1748860.4</v>
@@ -2754,10 +2756,10 @@
         <v>25963249</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17561864.45</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.6764</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17561864.45</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1929313.35</v>
@@ -2776,10 +2778,10 @@
         <v>26654190</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17383256.8</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.6522</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17383256.8</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2014388.03</v>
@@ -2798,10 +2800,10 @@
         <v>24658645</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16235217.64</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.6584</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16235217.64</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1482217</v>
@@ -2820,10 +2822,10 @@
         <v>25464203</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16935251</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.6651</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16935251</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1779638</v>
@@ -2842,10 +2844,10 @@
         <v>27450891</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17769912.22</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.6473</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17769912.22</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1615719</v>
@@ -2864,10 +2866,10 @@
         <v>26545459</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17539735</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6607000000000001</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17539735</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1690826</v>
@@ -2886,10 +2888,10 @@
         <v>26176662</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>15574499</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.595</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>15574499</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1309117</v>
@@ -2908,10 +2910,10 @@
         <v>26803548</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16561774</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6179</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16561774</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1541438</v>
@@ -2930,10 +2932,10 @@
         <v>25581875</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15045832</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.5881000000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15045832</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1357515</v>
@@ -2952,10 +2954,10 @@
         <v>26526575</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15143551</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.5709</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15143551</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1995587</v>
@@ -2974,10 +2976,10 @@
         <v>26417031</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>15499453</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.5867</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>15499453</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1222782</v>
@@ -2996,10 +2998,10 @@
         <v>26321041</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15664232</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.5951000000000001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15664232</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1329204</v>
@@ -3018,10 +3020,10 @@
         <v>25210078</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14825734</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.5881000000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14825734</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1333331</v>
@@ -3040,10 +3042,10 @@
         <v>26214856</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15342446</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.5852999999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15342446</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1400642</v>
@@ -3062,10 +3064,10 @@
         <v>26440396</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15278695</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5779</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15278695</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1680643</v>
@@ -3084,10 +3086,10 @@
         <v>25505767</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13711771</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.5376000000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13711771</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1356974</v>
@@ -3106,10 +3108,10 @@
         <v>23106790</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>12731407</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.551</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>12731407</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>952270</v>
@@ -3128,10 +3130,10 @@
         <v>24419793</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>13554877</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.5551</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>13554877</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>811594</v>
@@ -3150,10 +3152,10 @@
         <v>24306124</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>13242206</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.5448</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>13242206</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>890664</v>
@@ -3172,10 +3174,10 @@
         <v>23319721</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12327437</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.5286000000000001</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12327437</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>785767</v>
@@ -3194,10 +3196,10 @@
         <v>24424462</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13412679</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5491</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13412679</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>871708</v>
@@ -3216,10 +3218,10 @@
         <v>23887691</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12753197</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5338999999999999</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12753197</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>702391</v>
@@ -3238,10 +3240,10 @@
         <v>23905191</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>13037173</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.5454</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>13037173</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>695752</v>
@@ -3260,10 +3262,10 @@
         <v>22789341</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12319681</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.5406</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12319681</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>666537</v>
@@ -3282,10 +3284,10 @@
         <v>23271032</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12596557</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.5413</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12596557</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>585986</v>
@@ -3304,10 +3306,10 @@
         <v>23341468</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>12629727</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.5411</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>12629727</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>659068</v>
@@ -3326,10 +3328,10 @@
         <v>22912960</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11740358</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.5124</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11740358</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>596289</v>
@@ -3348,10 +3350,10 @@
         <v>23337287</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11701307</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.5014</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11701307</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>594674</v>
@@ -3370,10 +3372,10 @@
         <v>23925421</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>12490784</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.5221</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>12490784</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>645141</v>
@@ -3391,10 +3393,10 @@
         <v>23794470</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11897234</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11897234</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>607366</v>
@@ -3412,10 +3414,10 @@
         <v>24366450</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>12044424</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.4943</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>12044424</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>620385</v>
@@ -3433,10 +3435,10 @@
         <v>24767407</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12139318</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.4901</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12139318</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>522270</v>
@@ -3454,10 +3456,10 @@
         <v>23846059</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11693428</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.4904</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11693428</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>555729</v>
@@ -3475,10 +3477,10 @@
         <v>23507897</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11744939</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.4996</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11744939</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>447534</v>
@@ -3496,10 +3498,10 @@
         <v>22766818</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11228313</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.4932</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11228313</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>367462</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3896,7 +3898,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3924,7 +3926,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3940,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3954,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>9225744.219999999</v>
+        <v>723642.3199999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3236475304369613</v>
+        <v>0.02538603327848096</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>8502101.899999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.2982614971584804</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>28505529.48</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4240,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4257,7 +4268,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4282,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4310,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4324,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Etiopía</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4341,7 +4352,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1201937.910000001</v>
+        <v>30513.34</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2420627477138989</v>
+        <v>0.006145195072787426</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>4965398.11</v>
+        <v>1171424.570000001</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.2359175526411115</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>4965398.11</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4694,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4736,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4745,7 +4764,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4812,58 +4831,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
+      <c r="C26" s="39" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>15562796</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6491362.24</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.4171</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6491362.24</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>772747.3199999999</v>
@@ -5033,10 +5052,10 @@
         <v>15872760</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>6610000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.4164</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>6610000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>744665.11</v>
@@ -5055,10 +5074,10 @@
         <v>14719828</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>6120000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.4158</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>6120000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>867281.62</v>
@@ -5077,10 +5096,10 @@
         <v>13158425</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5460000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.4149</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5460000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>509918.09</v>
@@ -5099,10 +5118,10 @@
         <v>12820418</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>5310000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.4142</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>5310000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>520964.7</v>
@@ -5121,10 +5140,10 @@
         <v>15030817</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6220000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.4138</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6220000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>608171.97</v>
@@ -5143,10 +5162,10 @@
         <v>15324374</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6340000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.4137</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6340000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>587143.25</v>
@@ -5165,10 +5184,10 @@
         <v>14238506</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>5890000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.4137</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>5890000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>727583.29</v>
@@ -5187,10 +5206,10 @@
         <v>10289384</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4260000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.414</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4260000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>778796.75</v>
@@ -5209,10 +5228,10 @@
         <v>10000000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4230000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.423</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4230000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>840830.58</v>
@@ -5231,10 +5250,10 @@
         <v>9100000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4020000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.4418</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4020000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>885754</v>
@@ -5253,10 +5272,10 @@
         <v>9100000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3760000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.4132</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3760000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>788811</v>
@@ -5275,10 +5294,10 @@
         <v>11000000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>4330000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.3936</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>4330000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>630677</v>
@@ -5297,10 +5316,10 @@
         <v>11000000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>4890000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.4445</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>4890000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>495368</v>
@@ -5319,10 +5338,10 @@
         <v>6000000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2430000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.405</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2430000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1031324</v>
@@ -5341,10 +5360,10 @@
         <v>8000000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3010000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.3763</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3010000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>604518</v>
@@ -5363,10 +5382,10 @@
         <v>10000000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.393</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3930000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>486159</v>
@@ -5385,10 +5404,10 @@
         <v>8549300</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3270000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.3825</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3270000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>620527</v>
@@ -5407,10 +5426,10 @@
         <v>8047000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2630800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.3269</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2630800</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>304112</v>
@@ -5429,10 +5448,10 @@
         <v>8782800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2883900</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.3284</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2883900</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>281424</v>
@@ -5451,10 +5470,10 @@
         <v>9274600</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4230800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.4562</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4230800</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>486039</v>
@@ -5473,10 +5492,10 @@
         <v>7851300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2618800</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.3335</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2618800</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>249305</v>
@@ -5495,10 +5514,10 @@
         <v>6019700</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3296200</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.5476</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3296200</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163741</v>
@@ -5517,10 +5536,10 @@
         <v>5845200</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2847000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.4871</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2847000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>43473</v>
@@ -5539,10 +5558,10 @@
         <v>5970300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2866000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.48</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2866000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>38977.69</v>
@@ -5561,10 +5580,10 @@
         <v>7394000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2557600</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.3459</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2557600</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>96708</v>
@@ -5583,10 +5602,10 @@
         <v>8418400</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2955800</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.3511</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2955800</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>114577</v>
@@ -5605,10 +5624,10 @@
         <v>8416400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3507800</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.4168</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3507800</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>70184</v>
@@ -5627,10 +5646,10 @@
         <v>7833700</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3440000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.4391</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3440000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>92847</v>
@@ -5649,10 +5668,10 @@
         <v>8361000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3057400</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.3657</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3057400</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>110576</v>
@@ -5671,10 +5690,10 @@
         <v>8542000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3274700</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.3834</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3274700</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>54177</v>
@@ -5693,10 +5712,10 @@
         <v>8745000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3870400</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.4426</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3870400</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>24878</v>
@@ -5715,10 +5734,10 @@
         <v>9682000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3529000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.3645</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3529000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>79319</v>
@@ -5737,10 +5756,10 @@
         <v>9790700</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4084900</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.4172</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4084900</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>154327</v>
@@ -5759,10 +5778,10 @@
         <v>9691000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3902000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.4026</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3902000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>57027</v>
@@ -5781,10 +5800,10 @@
         <v>9423700</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>4036300</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.4283</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>4036300</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>147845</v>
@@ -5803,10 +5822,10 @@
         <v>8725200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3244600</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.3719</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3244600</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>176750</v>
@@ -5825,10 +5844,10 @@
         <v>9360000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3076600</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.3287</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3076600</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>553693</v>
@@ -5847,10 +5866,10 @@
         <v>9458000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3128000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.3307</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3128000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>137000</v>
@@ -5869,10 +5888,10 @@
         <v>9062600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3115200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.3437</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3115200</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>140383</v>
@@ -5891,10 +5910,10 @@
         <v>9113200</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3501700</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.3842</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3501700</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>136293</v>
@@ -5913,10 +5932,10 @@
         <v>8671900</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2862100</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.33</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2862100</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>45169</v>
@@ -5935,10 +5954,10 @@
         <v>9038500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2943900</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.3257</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2943900</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>204705</v>
@@ -5957,10 +5976,10 @@
         <v>9298600</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>2751600</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.2959</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>2751600</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>47610</v>
@@ -5979,10 +5998,10 @@
         <v>8153400</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1986400</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.2436</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1986400</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>55155</v>
@@ -6001,10 +6020,10 @@
         <v>8397100</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2550600</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.3037</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2550600</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>27457</v>
@@ -6023,10 +6042,10 @@
         <v>8329900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2746500</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.3297</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2746500</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1779</v>
@@ -6045,10 +6064,10 @@
         <v>8204500</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2463300</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.3002</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2463300</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>3984</v>
@@ -6067,10 +6086,10 @@
         <v>8750100</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2767400</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.3163</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2767400</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>149</v>
@@ -6089,10 +6108,10 @@
         <v>8361000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2175100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.2601</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2175100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>272</v>
@@ -6111,10 +6130,10 @@
         <v>8640100</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2670300</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.3091</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2670300</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>123</v>
@@ -6133,10 +6152,10 @@
         <v>7491700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1747400</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.2332</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1747400</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1009</v>
@@ -6155,10 +6174,10 @@
         <v>7520500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2032800</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.2703</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2032800</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>922</v>
@@ -6177,10 +6196,10 @@
         <v>7796000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2409000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.309</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2409000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1082</v>
@@ -6199,10 +6218,10 @@
         <v>7461100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2014000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.2699</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2014000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>234</v>
@@ -6221,10 +6240,10 @@
         <v>7406700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1864700</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.2518</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1864700</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>356</v>
@@ -6243,10 +6262,10 @@
         <v>7548200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2007100</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.2659</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2007100</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1780</v>
@@ -6264,10 +6283,10 @@
         <v>7247400</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1688500</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.233</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1688500</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>257</v>
@@ -6285,10 +6304,10 @@
         <v>7088400</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1701700</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.2401</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1701700</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>1877</v>
@@ -6306,10 +6325,10 @@
         <v>7332400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2059400</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.2809</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2059400</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>43</v>
@@ -6327,10 +6346,10 @@
         <v>7040000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1825800</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.2593</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1825800</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>96</v>
@@ -6348,10 +6367,10 @@
         <v>6725782</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1804505</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.2683</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1804505</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1331</v>
@@ -6369,10 +6388,10 @@
         <v>6541248</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1685627</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.2577</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1685627</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>216</v>
@@ -6708,7 +6727,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6806,10 @@
         <v>2465222</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2899043</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.176</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2899043</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>68984.23</v>
@@ -6809,10 +6828,10 @@
         <v>2635041</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2872474</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.0901</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2872474</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>76137.02</v>
@@ -6831,10 +6850,10 @@
         <v>2613638</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2900805</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1099</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2900805</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>83106.78</v>
@@ -6853,10 +6872,10 @@
         <v>2687605</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3036254</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.1297</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3036254</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>113581.21</v>
@@ -6875,10 +6894,10 @@
         <v>2607691</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2908075</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.1152</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2908075</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>150660.32</v>
@@ -6897,10 +6916,10 @@
         <v>2837675</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2916365</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.0277</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2916365</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>80895.49000000001</v>
@@ -6919,10 +6938,10 @@
         <v>2801248</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3046079</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.0874</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3046079</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>137402.93</v>
@@ -6941,10 +6960,10 @@
         <v>2587772</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2621267</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.0129</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2621267</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>342130.71</v>
@@ -6963,10 +6982,10 @@
         <v>2865396</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3088926</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.078</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3088926</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>156307.19</v>
@@ -6985,10 +7004,10 @@
         <v>3185745</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3294586</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.0342</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3294586</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>135296.04</v>
@@ -7007,10 +7026,10 @@
         <v>2813506</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2892599</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.0281</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2892599</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>303934</v>
@@ -7029,10 +7048,10 @@
         <v>2709485</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2794854</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.0315</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2794854</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>311909</v>
@@ -7051,10 +7070,10 @@
         <v>3673162</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3435366</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.9352999999999999</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3435366</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>207092</v>
@@ -7073,10 +7092,10 @@
         <v>3423646</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3158905</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.9227000000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3158905</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>181162</v>
@@ -7095,10 +7114,10 @@
         <v>4099991</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3486763</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.8503999999999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3486763</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>109921</v>
@@ -7117,10 +7136,10 @@
         <v>3781908</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3461194</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.9152</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3461194</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>209690</v>
@@ -7139,10 +7158,10 @@
         <v>3788279</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3169356</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.8366</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3169356</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>96269</v>
@@ -7161,10 +7180,10 @@
         <v>4034383</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3457744</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.8571</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3457744</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>70064</v>
@@ -7183,10 +7202,10 @@
         <v>3748656</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3021641</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.8061</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3021641</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>100697</v>
@@ -7205,10 +7224,10 @@
         <v>3978660</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2967007</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.7457</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2967007</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>79191</v>
@@ -7227,10 +7246,10 @@
         <v>4090568</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>3302038</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.8072</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>3302038</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>103277</v>
@@ -7249,10 +7268,10 @@
         <v>4140530</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>3064230</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.7401</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>3064230</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>82303</v>
@@ -7271,10 +7290,10 @@
         <v>3450347</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2453681</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7111000000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2453681</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>130263</v>
@@ -7293,10 +7312,10 @@
         <v>4332545</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3056289</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.7054</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3056289</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>79528.11</v>
@@ -7315,10 +7334,10 @@
         <v>4154194</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2830915</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.6815</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2830915</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>92808</v>
@@ -7337,10 +7356,10 @@
         <v>3313620</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2191153</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.6613</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2191153</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>211030</v>
@@ -7359,10 +7378,10 @@
         <v>4401770</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2840243</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.6453</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2840243</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>158474</v>
@@ -7381,10 +7400,10 @@
         <v>4300513</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2452036</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.5702</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2452036</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>82413</v>
@@ -7403,10 +7422,10 @@
         <v>5006400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2946168</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.5885</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2946168</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>171762</v>
@@ -7425,10 +7444,10 @@
         <v>5471320</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3369684</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.6159</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3369684</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>219002</v>
@@ -7447,10 +7466,10 @@
         <v>3884340</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2478325</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.638</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2478325</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>79821</v>
@@ -7469,10 +7488,10 @@
         <v>5148700</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2797138</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.5433</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2797138</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>96657</v>
@@ -7491,10 +7510,10 @@
         <v>5433640</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2744711</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.5051</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2744711</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>96782</v>
@@ -7513,10 +7532,10 @@
         <v>4680090</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2234467</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.4774</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2234467</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>70401</v>
@@ -7535,10 +7554,10 @@
         <v>5175270</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2308355</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.446</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2308355</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>42798</v>
@@ -7557,10 +7576,10 @@
         <v>5764882</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2802983</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.4862</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2802983</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>30619</v>
@@ -7579,10 +7598,10 @@
         <v>5221794</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2006055</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.3842</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2006055</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>35054</v>
@@ -7601,10 +7620,10 @@
         <v>5477688</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2219478</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.4052</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2219478</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>94999</v>
@@ -7623,10 +7642,10 @@
         <v>5315890</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2548738</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.4795</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2548738</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>15343</v>
@@ -7645,10 +7664,10 @@
         <v>5320150</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2625676</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.4935</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2625676</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>60527</v>
@@ -7667,10 +7686,10 @@
         <v>4064028</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1580546</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.3889</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1580546</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3739</v>
@@ -7689,10 +7708,10 @@
         <v>5926143</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2902657</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.4898</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2902657</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>3570</v>
@@ -7711,10 +7730,10 @@
         <v>5026925</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2340947</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.4657</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2340947</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5631</v>
@@ -7733,10 +7752,10 @@
         <v>4643409</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1968165</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.4239</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1968165</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>39887</v>
@@ -7755,10 +7774,10 @@
         <v>4212424</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2186343</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.519</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2186343</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>7664</v>
@@ -7777,10 +7796,10 @@
         <v>4617259</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2193977</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4752</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2193977</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>7580</v>
@@ -7799,10 +7818,10 @@
         <v>4551032</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2290007</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.5032</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2290007</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>81819</v>
@@ -7821,10 +7840,10 @@
         <v>4059176</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1840315</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.4534</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1840315</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>52734</v>
@@ -7843,10 +7862,10 @@
         <v>4145916</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2282466</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5505</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2282466</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>3705</v>
@@ -7865,10 +7884,10 @@
         <v>4288555</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2238012</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5219</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2238012</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1431</v>
@@ -7887,10 +7906,10 @@
         <v>3815452</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2232033</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.585</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2232033</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>13893</v>
@@ -7909,10 +7928,10 @@
         <v>3971034</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2676225</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.6738999999999999</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2676225</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>11853</v>
@@ -7931,10 +7950,10 @@
         <v>3936281</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2687989</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.6829</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2687989</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>2138</v>
@@ -7953,10 +7972,10 @@
         <v>3484778</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2211449</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.6346000000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2211449</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>1747</v>
@@ -7975,10 +7994,10 @@
         <v>3633264</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2199974</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.6055</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2199974</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1352</v>
@@ -7997,10 +8016,10 @@
         <v>3663301</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2419677</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6605</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2419677</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>6685</v>
@@ -8019,10 +8038,10 @@
         <v>3650568</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2547577</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.6979</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2547577</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>11760</v>
@@ -8040,10 +8059,10 @@
         <v>3324592</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2148100</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.6461</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2148100</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15454</v>
@@ -8061,10 +8080,10 @@
         <v>3272525</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2289796</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6997000000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2289796</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>791</v>
@@ -8082,10 +8101,10 @@
         <v>3130562</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1950683</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6231</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1950683</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>306</v>
@@ -8103,10 +8122,10 @@
         <v>2982432</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1942364</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.6513</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1942364</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1033</v>
@@ -8124,10 +8143,10 @@
         <v>2716257</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1709983</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6294999999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1709983</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3931</v>
@@ -8145,10 +8164,10 @@
         <v>2580567</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1744561</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.676</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1744561</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>226</v>
@@ -8484,7 +8503,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8582,10 @@
         <v>2817373</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2683918.83</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.9526</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2683918.83</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -8583,10 +8602,10 @@
         <v>2888347</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2724499</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.9432999999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2724499</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -8603,10 +8622,10 @@
         <v>2870000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2694043</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.9387000000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2694043</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0</v>
@@ -8625,10 +8644,10 @@
         <v>2854309</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2659244</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.9317000000000001</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2659244</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>47.6</v>
@@ -8647,10 +8666,10 @@
         <v>2909925</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2716527</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.9335</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2716527</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>559.9299999999999</v>
@@ -8669,10 +8688,10 @@
         <v>2917580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2721079</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.9326</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2721079</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>777.89</v>
@@ -8691,10 +8710,10 @@
         <v>3077000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2861839</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.9301</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2861839</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1001</v>
@@ -8713,10 +8732,10 @@
         <v>3293630</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3157256</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.9586</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3157256</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5159.39</v>
@@ -8735,10 +8754,10 @@
         <v>3294140</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3185719</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.9671000000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3185719</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>457.01</v>
@@ -8757,10 +8776,10 @@
         <v>3213500</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3062531</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.953</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3062531</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>199.28</v>
@@ -8779,10 +8798,10 @@
         <v>3012931</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4400304.25</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.4605</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4400304.25</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>103</v>
@@ -8801,10 +8820,10 @@
         <v>2797865</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4000539.48</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.4299</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4000539.48</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>108</v>
@@ -8823,10 +8842,10 @@
         <v>2712000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.3827</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3750000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>12</v>
@@ -8845,10 +8864,10 @@
         <v>2710000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3530000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.3026</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3530000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8867,10 +8886,10 @@
         <v>2719000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.2413</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3375000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -8889,10 +8908,10 @@
         <v>2725000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3218000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.1809</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3218000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>20</v>
@@ -8911,10 +8930,10 @@
         <v>2536000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2814000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.1096</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2814000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>48</v>
@@ -8933,10 +8952,10 @@
         <v>2394000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2502000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.0451</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2502000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>55</v>
@@ -8955,10 +8974,10 @@
         <v>2184000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.9959</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2175000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>28</v>
@@ -8977,10 +8996,10 @@
         <v>2071000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1863000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8996000000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1863000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>650</v>
@@ -8999,10 +9018,10 @@
         <v>2055000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1818000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.8847</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1818000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>234</v>
@@ -9021,10 +9040,10 @@
         <v>2000000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.8005</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1601000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2300</v>
@@ -9043,10 +9062,10 @@
         <v>1849548</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1436000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7764</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1436000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2000</v>
@@ -9065,10 +9084,10 @@
         <v>1762420</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1285259</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.7292999999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1285259</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5</v>
@@ -9087,10 +9106,10 @@
         <v>1674701</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1235337</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.7376</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1235337</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>20</v>
@@ -9109,10 +9128,10 @@
         <v>1328370</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1077570</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.8112</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1077570</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>415</v>
@@ -9131,10 +9150,10 @@
         <v>1377200</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>936500</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.68</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>936500</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>45</v>
@@ -9153,10 +9172,10 @@
         <v>1324600</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>967300</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.7302999999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>967300</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -9175,10 +9194,10 @@
         <v>1104400</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>752600</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.6815</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>752600</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -9197,10 +9216,10 @@
         <v>908900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>591300</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.6506000000000001</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>591300</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9219,10 +9238,10 @@
         <v>882200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>577600</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.6547000000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>577600</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9241,10 +9260,10 @@
         <v>723200</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>484800</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.6704</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>484800</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9263,10 +9282,10 @@
         <v>547100</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>351900</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.6432</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>351900</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9285,10 +9304,10 @@
         <v>433400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>263500</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.608</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>263500</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9307,10 +9326,10 @@
         <v>322900</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>215500</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.6674</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>215500</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9329,10 +9348,10 @@
         <v>361800</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>323900</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.8952</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>323900</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9351,10 +9370,10 @@
         <v>388100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>362400</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.9338</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>362400</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9373,10 +9392,10 @@
         <v>416400</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>362200</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.8697999999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>362200</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9395,10 +9414,10 @@
         <v>419700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>337100</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.8032</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>337100</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9417,10 +9436,10 @@
         <v>414400</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>358000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.8639</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>358000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9439,10 +9458,10 @@
         <v>337900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>280300</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.8295</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>280300</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9461,10 +9480,10 @@
         <v>377600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>272500</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.7217</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>272500</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9483,10 +9502,10 @@
         <v>432000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>238103</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5512</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>238103</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9505,10 +9524,10 @@
         <v>392800</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>274769</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6995</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>274769</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9527,10 +9546,10 @@
         <v>400100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>204090</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5101</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>204090</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9549,10 +9568,10 @@
         <v>385300</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>203040</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.527</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>203040</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9571,10 +9590,10 @@
         <v>332000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>162700</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.4901</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>162700</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9593,10 +9612,10 @@
         <v>333200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>130500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.3917</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>130500</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9615,10 +9634,10 @@
         <v>379400</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>156200</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.4117</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>156200</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9637,10 +9656,10 @@
         <v>344500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>153100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.4444</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>153100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9659,10 +9678,10 @@
         <v>371300</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>154500</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.4161</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>154500</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9681,10 +9700,10 @@
         <v>366500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>161700</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.4412</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>161700</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>102</v>
@@ -9703,10 +9722,10 @@
         <v>330500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>157000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.475</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>157000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9725,10 +9744,10 @@
         <v>344800</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>150700</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.4371</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>150700</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9747,10 +9766,10 @@
         <v>375300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>172800</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.4604</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>172800</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9769,10 +9788,10 @@
         <v>364300</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>154900</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.4252</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>154900</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9791,10 +9810,10 @@
         <v>395300</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>160600</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4063</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>160600</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9812,10 +9831,10 @@
         <v>373800</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>178200</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.4767</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>178200</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9833,10 +9852,10 @@
         <v>363300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>176000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.4844</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>176000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9854,10 +9873,10 @@
         <v>401400</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>217500</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.5418999999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>217500</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9875,10 +9894,10 @@
         <v>381300</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>199600</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.5235</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>199600</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9896,10 +9915,10 @@
         <v>295400</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>162100</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.5487000000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>162100</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9917,10 +9936,10 @@
         <v>274200</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>137300</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.5007</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>137300</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10256,7 +10275,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10335,10 +10354,10 @@
         <v>1080752</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1484000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.3731</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1484000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2097.81</v>
@@ -10357,10 +10376,10 @@
         <v>943690</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1269000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.3447</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1269000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>226.34</v>
@@ -10379,10 +10398,10 @@
         <v>987307</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1287000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.3035</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1287000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2244.67</v>
@@ -10401,10 +10420,10 @@
         <v>958509</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1270750.33</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.3258</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1270750.33</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4074.83</v>
@@ -10423,10 +10442,10 @@
         <v>893570</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1197489</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.3401</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1197489</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4168.6</v>
@@ -10445,10 +10464,10 @@
         <v>896646</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1096930</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.2234</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1096930</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>967.4299999999999</v>
@@ -10467,10 +10486,10 @@
         <v>1119826</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1428434</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.2756</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1428434</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1530.28</v>
@@ -10489,10 +10508,10 @@
         <v>1039465</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1194180.34</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.1488</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1194180.34</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1734.59</v>
@@ -10511,10 +10530,10 @@
         <v>1124710</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1201922</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.0687</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1201922</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1970.87</v>
@@ -10533,10 +10552,10 @@
         <v>1114393</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1114500</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.0001</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1114500</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3223.97</v>
@@ -10555,10 +10574,10 @@
         <v>1151376</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1113541</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.9671000000000001</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1113541</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>4137</v>
@@ -10577,10 +10596,10 @@
         <v>1265404</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1199267</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.9477000000000001</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1199267</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1387</v>
@@ -10599,10 +10618,10 @@
         <v>737661</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>675948</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.9163</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>675948</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>832</v>
@@ -10621,10 +10640,10 @@
         <v>1208690</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>867530</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.7177</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>867530</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>468</v>
@@ -10643,10 +10662,10 @@
         <v>868310</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>773720</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.8911</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>773720</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4097</v>
@@ -10665,10 +10684,10 @@
         <v>749540</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>570750</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.7615</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>570750</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>698</v>
@@ -10687,10 +10706,10 @@
         <v>918742</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>889293</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.9679</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>889293</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2183</v>
@@ -10709,10 +10728,10 @@
         <v>894771</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>707623</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.7907999999999999</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>707623</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>619</v>
@@ -10731,10 +10750,10 @@
         <v>894771</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>626340</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.7</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>626340</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>12750</v>
@@ -10753,10 +10772,10 @@
         <v>811010</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>447710</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.552</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>447710</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>4975</v>
@@ -10775,10 +10794,10 @@
         <v>687810</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>333040</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.4842</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>333040</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>141</v>
@@ -10797,10 +10816,10 @@
         <v>690005</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>560450</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.8122</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>560450</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1000</v>
@@ -10819,10 +10838,10 @@
         <v>692200</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7946</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>163</v>
@@ -10841,10 +10860,10 @@
         <v>672226</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>540000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.8032999999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>540000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>68</v>
@@ -10863,10 +10882,10 @@
         <v>651971</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.7976</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1393</v>
@@ -10885,10 +10904,10 @@
         <v>631421</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>500300</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.7923</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>500300</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>386</v>
@@ -10907,10 +10926,10 @@
         <v>610571</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>480267</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.7866000000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>480267</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5317.99</v>
@@ -10929,10 +10948,10 @@
         <v>589413</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>460233</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.7807999999999999</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>460233</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>6827</v>
@@ -10951,10 +10970,10 @@
         <v>567941</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>440200</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.7751</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>440200</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8977</v>
@@ -10973,10 +10992,10 @@
         <v>546149</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>420167</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.7693</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>420167</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -10993,10 +11012,10 @@
         <v>524027</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>400133</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.7636000000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>400133</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -11013,10 +11032,10 @@
         <v>501570</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>380100</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.7577999999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>380100</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -11033,10 +11052,10 @@
         <v>478770</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>360067</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7521</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>360067</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -11053,10 +11072,10 @@
         <v>455617</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>340033</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.7463</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>340033</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -11073,10 +11092,10 @@
         <v>432105</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>320000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7406</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>320000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -11093,10 +11112,10 @@
         <v>326617</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.7348</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -11113,10 +11132,10 @@
         <v>370343</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.7291</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -11133,10 +11152,10 @@
         <v>318000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7232999999999999</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>230000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -11153,10 +11172,10 @@
         <v>441000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>270000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6122000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>270000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -11173,10 +11192,10 @@
         <v>446700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>280200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6273</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>280200</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -11193,10 +11212,10 @@
         <v>465900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>281900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.6051</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>281900</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -11213,10 +11232,10 @@
         <v>500000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -11233,10 +11252,10 @@
         <v>500000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -11253,10 +11272,10 @@
         <v>500000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -11273,10 +11292,10 @@
         <v>500000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>252889</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5058</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>252889</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -11293,10 +11312,10 @@
         <v>500000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>275818</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.5516</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>275818</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -11313,10 +11332,10 @@
         <v>350000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>195820</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.5595</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>195820</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -11333,10 +11352,10 @@
         <v>294000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>146000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.4966</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>146000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -11353,10 +11372,10 @@
         <v>268000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>134000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>134000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -11373,10 +11392,10 @@
         <v>260000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>130000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -11393,10 +11412,10 @@
         <v>280000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.5179</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>145000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -11413,10 +11432,10 @@
         <v>280000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>161520</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.5769</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>161520</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -11433,10 +11452,10 @@
         <v>260000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>133584</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.5137999999999999</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>133584</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -11453,10 +11472,10 @@
         <v>262250</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>130004</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.4957</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>130004</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -11473,10 +11492,10 @@
         <v>206701</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>109437</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.5294</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>109437</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -11493,10 +11512,10 @@
         <v>219771</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>118622</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.5397999999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>118622</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -11513,10 +11532,10 @@
         <v>250000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>141379</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.5655</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>141379</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -11532,10 +11551,10 @@
         <v>234056</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>109766</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.469</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>109766</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -11551,10 +11570,10 @@
         <v>176644</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>84339</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.4775</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>84339</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -11570,10 +11589,10 @@
         <v>230743</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>98744</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.4279</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>98744</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -11589,10 +11608,10 @@
         <v>209944</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>88891</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.4234</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>88891</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -11608,10 +11627,10 @@
         <v>202000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.4208</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -11627,10 +11646,10 @@
         <v>193000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.4145</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
@@ -11964,7 +11983,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12043,10 +12062,10 @@
         <v>728166</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1296894.34</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.781</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1296894.34</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>621527.8</v>
@@ -12065,10 +12084,10 @@
         <v>733290</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1298280.76</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.7705</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1298280.76</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>730694.84</v>
@@ -12087,10 +12106,10 @@
         <v>738475</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1299667.17</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.7599</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1299667.17</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>342936.64</v>
@@ -12109,10 +12128,10 @@
         <v>737431</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1297926.91</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.7601</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1297926.91</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>224684.59</v>
@@ -12131,10 +12150,10 @@
         <v>749458</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1321646.4</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.7635</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1321646.4</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>134956.15</v>
@@ -12153,10 +12172,10 @@
         <v>747813</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1324407</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.771</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1324407</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>107133.63</v>
@@ -12175,10 +12194,10 @@
         <v>753485</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1322214</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.7548</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1322214</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>49831.43</v>
@@ -12197,10 +12216,10 @@
         <v>727141</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1193702</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.6416</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1193702</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>43740.29</v>
@@ -12219,10 +12238,10 @@
         <v>667000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.6492</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1100000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>59520.81</v>
@@ -12241,10 +12260,10 @@
         <v>600000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.75</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1050000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>35791.87</v>
@@ -12263,10 +12282,10 @@
         <v>625000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1002000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.6032</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1002000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>23286</v>
@@ -12285,10 +12304,10 @@
         <v>748000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1115400</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.4912</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1115400</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>38939</v>
@@ -12307,10 +12326,10 @@
         <v>909330</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1203800</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.3238</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1203800</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>20741</v>
@@ -12329,10 +12348,10 @@
         <v>907000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.4664</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1330000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>81883</v>
@@ -12351,10 +12370,10 @@
         <v>900000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1480000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.6444</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1480000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8851</v>
@@ -12373,10 +12392,10 @@
         <v>1000000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.7</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>87147</v>
@@ -12395,10 +12414,10 @@
         <v>987000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.5451</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1525000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25074</v>
@@ -12417,10 +12436,10 @@
         <v>950000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.6316</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1550000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>11484</v>
@@ -12439,10 +12458,10 @@
         <v>1220000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.4754</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>11242</v>
@@ -12461,10 +12480,10 @@
         <v>1148000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.5244</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>13893</v>
@@ -12483,10 +12502,10 @@
         <v>1313800</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5756</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2070000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1295</v>
@@ -12505,10 +12524,10 @@
         <v>1434500</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.4291</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2050000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4074</v>
@@ -12527,10 +12546,10 @@
         <v>1330000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.3534</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>3922</v>
@@ -12549,10 +12568,10 @@
         <v>1200000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.375</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5479.77</v>
@@ -12571,10 +12590,10 @@
         <v>1158500</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1670000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.4415</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1670000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2302</v>
@@ -12593,10 +12612,10 @@
         <v>1190500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1567000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.3163</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1567000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>15493</v>
@@ -12615,10 +12634,10 @@
         <v>1058300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.2284</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>11094</v>
@@ -12637,10 +12656,10 @@
         <v>1200000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.275</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1530000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17884</v>
@@ -12659,10 +12678,10 @@
         <v>1300000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1430000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.1</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1430000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>4955</v>
@@ -12681,10 +12700,10 @@
         <v>1400000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.0714</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>4468</v>
@@ -12703,10 +12722,10 @@
         <v>1200000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.0417</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1250000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>29630</v>
@@ -12725,10 +12744,10 @@
         <v>1240013</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1528813</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.2329</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1528813</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>28469</v>
@@ -12747,10 +12766,10 @@
         <v>1241948</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1618884.81</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.3035</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1618884.81</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>24042</v>
@@ -12769,10 +12788,10 @@
         <v>1200000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>30278</v>
@@ -12791,10 +12810,10 @@
         <v>1300000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1300000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>36297</v>
@@ -12813,10 +12832,10 @@
         <v>1300000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1675000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.2885</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1675000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>33354</v>
@@ -12835,10 +12854,10 @@
         <v>1400000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1454000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.0386</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1454000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>36325</v>
@@ -12857,10 +12876,10 @@
         <v>1400000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.0714</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1500000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>48524</v>
@@ -12879,10 +12898,10 @@
         <v>1400000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.1429</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>40926</v>
@@ -12901,10 +12920,10 @@
         <v>1500000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.2</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>42448</v>
@@ -12923,10 +12942,10 @@
         <v>1500000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.1333</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>40000</v>
@@ -12945,10 +12964,10 @@
         <v>1500000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.1333</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>65300</v>
@@ -12967,10 +12986,10 @@
         <v>1700000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>29000</v>
@@ -12989,10 +13008,10 @@
         <v>1700000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>28000</v>
@@ -13011,10 +13030,10 @@
         <v>1700000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1685000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.9912000000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1685000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>21000</v>
@@ -13033,10 +13052,10 @@
         <v>1500000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.1033</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1655000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>20000</v>
@@ -13055,10 +13074,10 @@
         <v>1700000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.9412</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>5000</v>
@@ -13077,10 +13096,10 @@
         <v>1700000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.9706</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1650000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -13099,10 +13118,10 @@
         <v>1700000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -13121,10 +13140,10 @@
         <v>1700000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13143,10 +13162,10 @@
         <v>1800000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.9444</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13165,10 +13184,10 @@
         <v>1800000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.8889</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13187,10 +13206,10 @@
         <v>1900000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1660000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.8737</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1660000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13209,10 +13228,10 @@
         <v>2300000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.8261000000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13231,10 +13250,10 @@
         <v>2300000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.6957000000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13253,10 +13272,10 @@
         <v>2400000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6667000000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1600000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>191</v>
@@ -13275,10 +13294,10 @@
         <v>2500000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.72</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13296,10 +13315,10 @@
         <v>2500000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.72</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1800000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>15</v>
@@ -13317,10 +13336,10 @@
         <v>2800000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2350000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.8392999999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2350000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>201</v>
@@ -13338,10 +13357,10 @@
         <v>2800000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.8214</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>378</v>
@@ -13359,10 +13378,10 @@
         <v>2800000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.7857000000000001</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2200000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3000</v>
@@ -13380,10 +13399,10 @@
         <v>3500000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.8286</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4000</v>
@@ -13401,10 +13420,10 @@
         <v>3100000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2130000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.6871</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2130000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>363</v>
